--- a/Code/Results/Cases/Case_1_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2702383850931511</v>
+        <v>0.1423950979931163</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1628045438832686</v>
+        <v>0.234083573227565</v>
       </c>
       <c r="E2">
-        <v>0.1021748523975781</v>
+        <v>0.1782150073766182</v>
       </c>
       <c r="F2">
-        <v>0.5866350793386772</v>
+        <v>1.105796097394865</v>
       </c>
       <c r="G2">
-        <v>0.3260831303486214</v>
+        <v>0.5444902194853185</v>
       </c>
       <c r="H2">
-        <v>0.2772276618642451</v>
+        <v>0.6826083526132365</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09078434491730292</v>
+        <v>0.1824366652562546</v>
       </c>
       <c r="K2">
-        <v>1.475838174207524</v>
+        <v>0.4539634355244289</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4218127816911306</v>
+        <v>0.2204584592205094</v>
       </c>
       <c r="N2">
-        <v>0.8483458966529049</v>
+        <v>1.544647681924555</v>
       </c>
       <c r="O2">
-        <v>1.220695777246434</v>
+        <v>2.426055038172038</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2364701806180278</v>
+        <v>0.132950717731859</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1483631564462371</v>
+        <v>0.2313334024654097</v>
       </c>
       <c r="E3">
-        <v>0.09562130107756062</v>
+        <v>0.1775680223802958</v>
       </c>
       <c r="F3">
-        <v>0.560496470354451</v>
+        <v>1.106988621844266</v>
       </c>
       <c r="G3">
-        <v>0.31003989080412</v>
+        <v>0.5449838828416276</v>
       </c>
       <c r="H3">
-        <v>0.2748763062922137</v>
+        <v>0.6862965369911507</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08725827062611557</v>
+        <v>0.1827850043821933</v>
       </c>
       <c r="K3">
-        <v>1.292469410079832</v>
+        <v>0.396367287497327</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3672430268516536</v>
+        <v>0.204966476955903</v>
       </c>
       <c r="N3">
-        <v>0.8768967356156274</v>
+        <v>1.558012874060694</v>
       </c>
       <c r="O3">
-        <v>1.181429783863237</v>
+        <v>2.434573712127047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.215863229957165</v>
+        <v>0.1272202556083926</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1396222576040174</v>
+        <v>0.2297371686545375</v>
       </c>
       <c r="E4">
-        <v>0.0917179851588763</v>
+        <v>0.177249435626031</v>
       </c>
       <c r="F4">
-        <v>0.5454239479275955</v>
+        <v>1.108287195819784</v>
       </c>
       <c r="G4">
-        <v>0.3008666161717599</v>
+        <v>0.5456301449589063</v>
       </c>
       <c r="H4">
-        <v>0.2738687325766804</v>
+        <v>0.6888390851203212</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0852360372360188</v>
+        <v>0.1830853044207075</v>
       </c>
       <c r="K4">
-        <v>1.179723168468172</v>
+        <v>0.3608888485047146</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.333815509161397</v>
+        <v>0.1955045848880985</v>
       </c>
       <c r="N4">
-        <v>0.8954253772916125</v>
+        <v>1.566740715599817</v>
       </c>
       <c r="O4">
-        <v>1.159660420297925</v>
+        <v>2.441104757837266</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2074948500016944</v>
+        <v>0.124902437986222</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1360903629987433</v>
+        <v>0.2291100225081522</v>
       </c>
       <c r="E5">
-        <v>0.09015631361645404</v>
+        <v>0.1771394341199972</v>
       </c>
       <c r="F5">
-        <v>0.5395164349536756</v>
+        <v>1.108958934191655</v>
       </c>
       <c r="G5">
-        <v>0.2972901920742217</v>
+        <v>0.54597979033759</v>
       </c>
       <c r="H5">
-        <v>0.2735640449889019</v>
+        <v>0.6899451741312674</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08444635755481045</v>
+        <v>0.1832294315790755</v>
       </c>
       <c r="K5">
-        <v>1.133729693200479</v>
+        <v>0.3464033750092597</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3202093045404126</v>
+        <v>0.1916617003657777</v>
       </c>
       <c r="N5">
-        <v>0.9032216857378472</v>
+        <v>1.570428648277268</v>
       </c>
       <c r="O5">
-        <v>1.151351606939599</v>
+        <v>2.444093401687923</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2061069665138149</v>
+        <v>0.1245186220495498</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1355056656983749</v>
+        <v>0.22900729756212</v>
       </c>
       <c r="E6">
-        <v>0.08989870970007274</v>
+        <v>0.1771223671481685</v>
       </c>
       <c r="F6">
-        <v>0.5385493590872414</v>
+        <v>1.109079090259421</v>
       </c>
       <c r="G6">
-        <v>0.2967058560507141</v>
+        <v>0.546043060297265</v>
       </c>
       <c r="H6">
-        <v>0.2735197412048009</v>
+        <v>0.6901330682751308</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08431726640549186</v>
+        <v>0.1832546782207096</v>
       </c>
       <c r="K6">
-        <v>1.126089333079591</v>
+        <v>0.3439964279286016</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3179508457662052</v>
+        <v>0.1910243804323386</v>
       </c>
       <c r="N6">
-        <v>0.9045309479952302</v>
+        <v>1.571048958307493</v>
       </c>
       <c r="O6">
-        <v>1.150005160329101</v>
+        <v>2.444609429800266</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.215750256747711</v>
+        <v>0.1271889260425922</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1395745055022957</v>
+        <v>0.2297286161358301</v>
       </c>
       <c r="E7">
-        <v>0.09169680840538774</v>
+        <v>0.177247871776828</v>
       </c>
       <c r="F7">
-        <v>0.5453433411123925</v>
+        <v>1.108295677712668</v>
       </c>
       <c r="G7">
-        <v>0.3008177393551819</v>
+        <v>0.5456345110206655</v>
       </c>
       <c r="H7">
-        <v>0.2738641995033717</v>
+        <v>0.6888537187740127</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08522525001619741</v>
+        <v>0.183087160065611</v>
       </c>
       <c r="K7">
-        <v>1.179103092067265</v>
+        <v>0.3606936032779799</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3336319523265061</v>
+        <v>0.1954527057494104</v>
       </c>
       <c r="N7">
-        <v>0.8955295328887729</v>
+        <v>1.566789920701094</v>
       </c>
       <c r="O7">
-        <v>1.159546121306363</v>
+        <v>2.441143738747414</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2585670593946503</v>
+        <v>0.1391245824801928</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1577979565946492</v>
+        <v>0.2331162002418097</v>
       </c>
       <c r="E8">
-        <v>0.09988931959264136</v>
+        <v>0.1779756261065337</v>
       </c>
       <c r="F8">
-        <v>0.5774130406675937</v>
+        <v>1.106089815508859</v>
       </c>
       <c r="G8">
-        <v>0.3204055669147294</v>
+        <v>0.5445892123556746</v>
       </c>
       <c r="H8">
-        <v>0.276324065463335</v>
+        <v>0.6838223883448791</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08953798933243462</v>
+        <v>0.1825388492224107</v>
       </c>
       <c r="K8">
-        <v>1.4126396025529</v>
+        <v>0.4341285552933414</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4029783621033189</v>
+        <v>0.2151065567486583</v>
       </c>
       <c r="N8">
-        <v>0.8579797754207767</v>
+        <v>1.549147820538138</v>
       </c>
       <c r="O8">
-        <v>1.206655123350799</v>
+        <v>2.428722438928645</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3436720831660125</v>
+        <v>0.1630663841022084</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1946142086942615</v>
+        <v>0.2404883108123954</v>
       </c>
       <c r="E9">
-        <v>0.1169767329514464</v>
+        <v>0.1800252272070573</v>
       </c>
       <c r="F9">
-        <v>0.6485709781861573</v>
+        <v>1.106252811542987</v>
       </c>
       <c r="G9">
-        <v>0.3645980139159093</v>
+        <v>0.5452628758298204</v>
       </c>
       <c r="H9">
-        <v>0.2847875428535787</v>
+        <v>0.6761584757688581</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09919989881938562</v>
+        <v>0.1821485042665856</v>
       </c>
       <c r="K9">
-        <v>1.869811962531088</v>
+        <v>0.5771916145416185</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5397854651111302</v>
+        <v>0.2540361333873165</v>
       </c>
       <c r="N9">
-        <v>0.7925134334013535</v>
+        <v>1.518684685716437</v>
       </c>
       <c r="O9">
-        <v>1.318840225680788</v>
+        <v>2.414678710244971</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4070955598575381</v>
+        <v>0.1809757690043199</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2224392942229514</v>
+        <v>0.2463445446899613</v>
       </c>
       <c r="E10">
-        <v>0.1302498140511759</v>
+        <v>0.1819086508437735</v>
       </c>
       <c r="F10">
-        <v>0.7066550696796696</v>
+        <v>1.109103843363435</v>
       </c>
       <c r="G10">
-        <v>0.4011862224824085</v>
+        <v>0.5474202467438261</v>
       </c>
       <c r="H10">
-        <v>0.2934867266110359</v>
+        <v>0.671866523113124</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1071379838254813</v>
+        <v>0.1822784055005258</v>
       </c>
       <c r="K10">
-        <v>2.205919954339777</v>
+        <v>0.6816857370781406</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6410946821365968</v>
+        <v>0.2828635959376129</v>
       </c>
       <c r="N10">
-        <v>0.7497519365230474</v>
+        <v>1.498815360300178</v>
       </c>
       <c r="O10">
-        <v>1.41514920632801</v>
+        <v>2.410645252272758</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4361901062026163</v>
+        <v>0.1891910804661592</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2352938315458033</v>
+        <v>0.2491033146293802</v>
       </c>
       <c r="E11">
-        <v>0.1364666835638353</v>
+        <v>0.182847077470047</v>
       </c>
       <c r="F11">
-        <v>0.7345185610151361</v>
+        <v>1.110992943521595</v>
       </c>
       <c r="G11">
-        <v>0.4188657545660277</v>
+        <v>0.5487631900564054</v>
       </c>
       <c r="H11">
-        <v>0.2980446203925027</v>
+        <v>0.670203878771531</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1109561425660672</v>
+        <v>0.182427817991929</v>
       </c>
       <c r="K11">
-        <v>2.359043304309836</v>
+        <v>0.7290815945719942</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6874269495057135</v>
+        <v>0.2960248626984523</v>
       </c>
       <c r="N11">
-        <v>0.7315405671196444</v>
+        <v>1.490320150469579</v>
       </c>
       <c r="O11">
-        <v>1.462404093696421</v>
+        <v>2.410174415884484</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4472463438449381</v>
+        <v>0.1923116509357072</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2401921859741805</v>
+        <v>0.2501615190869586</v>
       </c>
       <c r="E12">
-        <v>0.1388485319042694</v>
+        <v>0.1832141365241249</v>
       </c>
       <c r="F12">
-        <v>0.7452926930474035</v>
+        <v>1.111793332582181</v>
       </c>
       <c r="G12">
-        <v>0.4257217805998152</v>
+        <v>0.5493237380366196</v>
       </c>
       <c r="H12">
-        <v>0.2998624035836173</v>
+        <v>0.66961587980839</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1124339235210883</v>
+        <v>0.1824973666323189</v>
       </c>
       <c r="K12">
-        <v>2.417074265371809</v>
+        <v>0.7470082941291878</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7050133002377166</v>
+        <v>0.3010152768013867</v>
       </c>
       <c r="N12">
-        <v>0.7248302826338389</v>
+        <v>1.487181277993244</v>
       </c>
       <c r="O12">
-        <v>1.48083111652349</v>
+        <v>2.41019216848747</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4448633979161087</v>
+        <v>0.1916391560665858</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2391358373527623</v>
+        <v>0.2499330162788453</v>
       </c>
       <c r="E13">
-        <v>0.138334296297792</v>
+        <v>0.1831345642464655</v>
       </c>
       <c r="F13">
-        <v>0.7429621208235062</v>
+        <v>1.111617174807307</v>
       </c>
       <c r="G13">
-        <v>0.4242378408069385</v>
+        <v>0.5492007008598847</v>
       </c>
       <c r="H13">
-        <v>0.2994667379469433</v>
+        <v>0.6697406663571854</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1121142013871292</v>
+        <v>0.1824818115678895</v>
       </c>
       <c r="K13">
-        <v>2.404573959100219</v>
+        <v>0.7431484136357085</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7012238281929086</v>
+        <v>0.2999402163392233</v>
       </c>
       <c r="N13">
-        <v>0.7262670676714365</v>
+        <v>1.487853818804012</v>
       </c>
       <c r="O13">
-        <v>1.476838217488591</v>
+        <v>2.410179627369018</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4370989099288778</v>
+        <v>0.1894476202363364</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2356961946258025</v>
+        <v>0.2491901034260593</v>
       </c>
       <c r="E14">
-        <v>0.1366620739410074</v>
+        <v>0.1828770414590366</v>
       </c>
       <c r="F14">
-        <v>0.7354003963486804</v>
+        <v>1.111057088633743</v>
       </c>
       <c r="G14">
-        <v>0.4194265007607214</v>
+        <v>0.5488082643471301</v>
       </c>
       <c r="H14">
-        <v>0.2981922981518039</v>
+        <v>0.6701546702078076</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1110770678600517</v>
+        <v>0.1824332799812041</v>
       </c>
       <c r="K14">
-        <v>2.36381653130212</v>
+        <v>0.730556863704777</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6888729255185311</v>
+        <v>0.2964352979800609</v>
       </c>
       <c r="N14">
-        <v>0.7309847364890061</v>
+        <v>1.490060349098606</v>
       </c>
       <c r="O14">
-        <v>1.463909198539085</v>
+        <v>2.410171947849818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4323481024505327</v>
+        <v>0.1881064867755811</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.233593373158925</v>
+        <v>0.2487368051878178</v>
       </c>
       <c r="E15">
-        <v>0.135641450230505</v>
+        <v>0.1827208233478999</v>
       </c>
       <c r="F15">
-        <v>0.7307981221386086</v>
+        <v>1.110725089152737</v>
       </c>
       <c r="G15">
-        <v>0.4165007828746354</v>
+        <v>0.5485746585957685</v>
       </c>
       <c r="H15">
-        <v>0.2974237904158059</v>
+        <v>0.6704136763026298</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1104460174490924</v>
+        <v>0.1824052414268138</v>
       </c>
       <c r="K15">
-        <v>2.338857914252799</v>
+        <v>0.7228413978553192</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6813132057758935</v>
+        <v>0.2942892754021003</v>
       </c>
       <c r="N15">
-        <v>0.7338988928602674</v>
+        <v>1.49142207885663</v>
       </c>
       <c r="O15">
-        <v>1.456060315712932</v>
+        <v>2.410192772356822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4051993738196416</v>
+        <v>0.1804402349644363</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2216033750777626</v>
+        <v>0.2461661499953465</v>
       </c>
       <c r="E16">
-        <v>0.129847289100848</v>
+        <v>0.1818489616954864</v>
       </c>
       <c r="F16">
-        <v>0.7048644331473781</v>
+        <v>1.10899229134737</v>
       </c>
       <c r="G16">
-        <v>0.400052690922621</v>
+        <v>0.5473397587294357</v>
       </c>
       <c r="H16">
-        <v>0.293201400637102</v>
+        <v>0.6719810067228167</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1068928060063641</v>
+        <v>0.1822704569285847</v>
       </c>
       <c r="K16">
-        <v>2.195918702476661</v>
+        <v>0.6785854153371815</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6380722107364463</v>
+        <v>0.2820044062523621</v>
       </c>
       <c r="N16">
-        <v>0.7509676976554331</v>
+        <v>1.49938147191137</v>
       </c>
       <c r="O16">
-        <v>1.412133429075595</v>
+        <v>2.410703461789922</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3886093850974532</v>
+        <v>0.1757545721745828</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2142999078248664</v>
+        <v>0.2446133265518569</v>
       </c>
       <c r="E17">
-        <v>0.1263399134378673</v>
+        <v>0.1813349837915936</v>
       </c>
       <c r="F17">
-        <v>0.6893348070915906</v>
+        <v>1.108080853103175</v>
       </c>
       <c r="G17">
-        <v>0.3902360094496942</v>
+        <v>0.5466747987316438</v>
       </c>
       <c r="H17">
-        <v>0.2907686951761406</v>
+        <v>0.6730166898561407</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1047675540314827</v>
+        <v>0.1822108909371849</v>
       </c>
       <c r="K17">
-        <v>2.108297642465942</v>
+        <v>0.6513994163834127</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6116124054298737</v>
+        <v>0.2744799891922156</v>
       </c>
       <c r="N17">
-        <v>0.7617619309806898</v>
+        <v>1.50440344224176</v>
       </c>
       <c r="O17">
-        <v>1.386093591035745</v>
+        <v>2.411366041014873</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3790898827250544</v>
+        <v>0.1730659383383966</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2101175200242267</v>
+        <v>0.2437291072411654</v>
       </c>
       <c r="E18">
-        <v>0.1243392783606154</v>
+        <v>0.1810470449857284</v>
       </c>
       <c r="F18">
-        <v>0.6805371947571288</v>
+        <v>1.107612361430071</v>
       </c>
       <c r="G18">
-        <v>0.3846863890949521</v>
+        <v>0.5463263607762627</v>
       </c>
       <c r="H18">
-        <v>0.2894256525317189</v>
+        <v>0.6736396672020248</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1035645210248077</v>
+        <v>0.182185132592231</v>
       </c>
       <c r="K18">
-        <v>2.057920714365622</v>
+        <v>0.6357497264991991</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5964162201037908</v>
+        <v>0.2701566335054224</v>
       </c>
       <c r="N18">
-        <v>0.7680868289669931</v>
+        <v>1.507343102335462</v>
       </c>
       <c r="O18">
-        <v>1.371437903212154</v>
+        <v>2.411875531282135</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3758705141949719</v>
+        <v>0.1721567245867845</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2087045223945125</v>
+        <v>0.2434312616293965</v>
       </c>
       <c r="E19">
-        <v>0.123664711409841</v>
+        <v>0.1809508755474525</v>
       </c>
       <c r="F19">
-        <v>0.6775811334793431</v>
+        <v>1.1074633159282</v>
       </c>
       <c r="G19">
-        <v>0.3828236248881609</v>
+        <v>0.5462142297952539</v>
       </c>
       <c r="H19">
-        <v>0.2889804108128402</v>
+        <v>0.6738552838697132</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1031604556774113</v>
+        <v>0.1821778721226579</v>
       </c>
       <c r="K19">
-        <v>2.040867045781113</v>
+        <v>0.6304488069919501</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5912747939863578</v>
+        <v>0.2686935999677189</v>
       </c>
       <c r="N19">
-        <v>0.7702480902888595</v>
+        <v>1.508347208863007</v>
       </c>
       <c r="O19">
-        <v>1.366529893848877</v>
+        <v>2.412070090258339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3903730494403703</v>
+        <v>0.1762527043987774</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2150754563974715</v>
+        <v>0.2447777044552595</v>
       </c>
       <c r="E20">
-        <v>0.1267115360262352</v>
+        <v>0.1813889022854838</v>
       </c>
       <c r="F20">
-        <v>0.6909739194805695</v>
+        <v>1.108172108904206</v>
       </c>
       <c r="G20">
-        <v>0.3912709198355486</v>
+        <v>0.5467420628276614</v>
       </c>
       <c r="H20">
-        <v>0.2910218075107593</v>
+        <v>0.672903616714791</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1049917723303295</v>
+        <v>0.182216352001646</v>
       </c>
       <c r="K20">
-        <v>2.117622846078774</v>
+        <v>0.6542947680327416</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6144266960764071</v>
+        <v>0.275280513735737</v>
       </c>
       <c r="N20">
-        <v>0.7606007725586608</v>
+        <v>1.503863551014803</v>
       </c>
       <c r="O20">
-        <v>1.388832013532749</v>
+        <v>2.41128222088625</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4393784446210276</v>
+        <v>0.1900910682321211</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2367056508298617</v>
+        <v>0.249407948901009</v>
       </c>
       <c r="E21">
-        <v>0.1371524796708634</v>
+        <v>0.1829523650320546</v>
       </c>
       <c r="F21">
-        <v>0.7376152809737135</v>
+        <v>1.111219292872178</v>
       </c>
       <c r="G21">
-        <v>0.4208352321288942</v>
+        <v>0.5489221209630983</v>
       </c>
       <c r="H21">
-        <v>0.2985640953017281</v>
+        <v>0.6700319385002018</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.111380814859217</v>
+        <v>0.1824471830473939</v>
       </c>
       <c r="K21">
-        <v>2.375786598070192</v>
+        <v>0.7342558880064303</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6924995141740382</v>
+        <v>0.297464602716623</v>
       </c>
       <c r="N21">
-        <v>0.7295939338837414</v>
+        <v>1.489410119145973</v>
       </c>
       <c r="O21">
-        <v>1.46769199947542</v>
+        <v>2.410168883578905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4716341797973485</v>
+        <v>0.1991911606250198</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2510218911242816</v>
+        <v>0.2525128264748417</v>
       </c>
       <c r="E22">
-        <v>0.1441384134879797</v>
+        <v>0.1840423385522563</v>
       </c>
       <c r="F22">
-        <v>0.769404913562127</v>
+        <v>1.113706353366283</v>
       </c>
       <c r="G22">
-        <v>0.4411029057748124</v>
+        <v>0.5506500431687584</v>
       </c>
       <c r="H22">
-        <v>0.3040313175316527</v>
+        <v>0.668397627243948</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1157436106061596</v>
+        <v>0.1826736312431763</v>
       </c>
       <c r="K22">
-        <v>2.544789663307057</v>
+        <v>0.786391709196721</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7437685470474094</v>
+        <v>0.312001096377486</v>
       </c>
       <c r="N22">
-        <v>0.7104169063076569</v>
+        <v>1.480419041160346</v>
       </c>
       <c r="O22">
-        <v>1.5223551788809</v>
+        <v>2.410583926937051</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.45439651490193</v>
+        <v>0.1943292204121576</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2433638006055219</v>
+        <v>0.2508485245306957</v>
       </c>
       <c r="E23">
-        <v>0.1403943815425848</v>
+        <v>0.1834543769456154</v>
       </c>
       <c r="F23">
-        <v>0.7523131888655996</v>
+        <v>1.112333660369003</v>
       </c>
       <c r="G23">
-        <v>0.4301948757066185</v>
+        <v>0.5497000776651504</v>
       </c>
       <c r="H23">
-        <v>0.3010622514811274</v>
+        <v>0.6692477221106259</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1133972327062622</v>
+        <v>0.1825458615275792</v>
       </c>
       <c r="K23">
-        <v>2.454559204842326</v>
+        <v>0.7585774903481877</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7163809133609362</v>
+        <v>0.3042393279002553</v>
       </c>
       <c r="N23">
-        <v>0.7205499309319947</v>
+        <v>1.485176130978608</v>
       </c>
       <c r="O23">
-        <v>1.492881607008371</v>
+        <v>2.41025788727481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3895756400684434</v>
+        <v>0.1760274825579558</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2147247797528564</v>
+        <v>0.2447033626601609</v>
       </c>
       <c r="E24">
-        <v>0.1265434763793891</v>
+        <v>0.181364502201852</v>
       </c>
       <c r="F24">
-        <v>0.6902324712253645</v>
+        <v>1.108130679249882</v>
       </c>
       <c r="G24">
-        <v>0.3908027446057218</v>
+        <v>0.5467115472710447</v>
       </c>
       <c r="H24">
-        <v>0.2909072027994455</v>
+        <v>0.6729546512623727</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1048903448323344</v>
+        <v>0.1822138566173024</v>
       </c>
       <c r="K24">
-        <v>2.113406930084665</v>
+        <v>0.6529858420691426</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6131543061643967</v>
+        <v>0.2749185886802152</v>
       </c>
       <c r="N24">
-        <v>0.7611253617202394</v>
+        <v>1.504107472416969</v>
       </c>
       <c r="O24">
-        <v>1.387592994491428</v>
+        <v>2.411319715489554</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3205065501902453</v>
+        <v>0.156532873830173</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1845270280245899</v>
+        <v>0.2384163740229894</v>
       </c>
       <c r="E25">
-        <v>0.1122351311743017</v>
+        <v>0.1794043110160679</v>
       </c>
       <c r="F25">
-        <v>0.6283593416244955</v>
+        <v>1.10572870152113</v>
       </c>
       <c r="G25">
-        <v>0.351964405819345</v>
+        <v>0.5447888418653832</v>
       </c>
       <c r="H25">
-        <v>0.2820821236185651</v>
+        <v>0.6779963861819311</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0964466247620166</v>
+        <v>0.1821808671797811</v>
       </c>
       <c r="K25">
-        <v>1.746149523429125</v>
+        <v>0.5385942842512463</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5026582131546888</v>
+        <v>0.2434641924751659</v>
       </c>
       <c r="N25">
-        <v>0.8093136224184647</v>
+        <v>1.526484107527402</v>
       </c>
       <c r="O25">
-        <v>1.286189930827391</v>
+        <v>2.417374037348168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423950979931163</v>
+        <v>0.2702383850929237</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.234083573227565</v>
+        <v>0.1628045438831691</v>
       </c>
       <c r="E2">
-        <v>0.1782150073766182</v>
+        <v>0.1021748523975816</v>
       </c>
       <c r="F2">
-        <v>1.105796097394865</v>
+        <v>0.5866350793386559</v>
       </c>
       <c r="G2">
-        <v>0.5444902194853185</v>
+        <v>0.3260831303486</v>
       </c>
       <c r="H2">
-        <v>0.6826083526132365</v>
+        <v>0.2772276618642309</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1824366652562546</v>
+        <v>0.09078434491733844</v>
       </c>
       <c r="K2">
-        <v>0.4539634355244289</v>
+        <v>1.475838174207581</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2204584592205094</v>
+        <v>0.4218127816911448</v>
       </c>
       <c r="N2">
-        <v>1.544647681924555</v>
+        <v>0.8483458966529014</v>
       </c>
       <c r="O2">
-        <v>2.426055038172038</v>
+        <v>1.220695777246348</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.132950717731859</v>
+        <v>0.2364701806178999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2313334024654097</v>
+        <v>0.1483631564464787</v>
       </c>
       <c r="E3">
-        <v>0.1775680223802958</v>
+        <v>0.09562130107757483</v>
       </c>
       <c r="F3">
-        <v>1.106988621844266</v>
+        <v>0.5604964703544439</v>
       </c>
       <c r="G3">
-        <v>0.5449838828416276</v>
+        <v>0.3100398908041839</v>
       </c>
       <c r="H3">
-        <v>0.6862965369911507</v>
+        <v>0.2748763062923274</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1827850043821933</v>
+        <v>0.08725827062611913</v>
       </c>
       <c r="K3">
-        <v>0.396367287497327</v>
+        <v>1.292469410079718</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.204966476955903</v>
+        <v>0.3672430268516536</v>
       </c>
       <c r="N3">
-        <v>1.558012874060694</v>
+        <v>0.8768967356156345</v>
       </c>
       <c r="O3">
-        <v>2.434573712127047</v>
+        <v>1.181429783863237</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272202556083926</v>
+        <v>0.2158632299569376</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2297371686545375</v>
+        <v>0.1396222576039889</v>
       </c>
       <c r="E4">
-        <v>0.177249435626031</v>
+        <v>0.0917179851588692</v>
       </c>
       <c r="F4">
-        <v>1.108287195819784</v>
+        <v>0.5454239479275742</v>
       </c>
       <c r="G4">
-        <v>0.5456301449589063</v>
+        <v>0.3008666161717812</v>
       </c>
       <c r="H4">
-        <v>0.6888390851203212</v>
+        <v>0.2738687325767941</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1830853044207075</v>
+        <v>0.08523603723606499</v>
       </c>
       <c r="K4">
-        <v>0.3608888485047146</v>
+        <v>1.179723168468115</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1955045848880985</v>
+        <v>0.3338155091613899</v>
       </c>
       <c r="N4">
-        <v>1.566740715599817</v>
+        <v>0.8954253772916125</v>
       </c>
       <c r="O4">
-        <v>2.441104757837266</v>
+        <v>1.159660420297854</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124902437986222</v>
+        <v>0.2074948500016944</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2291100225081522</v>
+        <v>0.1360903629983454</v>
       </c>
       <c r="E5">
-        <v>0.1771394341199972</v>
+        <v>0.09015631361645049</v>
       </c>
       <c r="F5">
-        <v>1.108958934191655</v>
+        <v>0.5395164349536614</v>
       </c>
       <c r="G5">
-        <v>0.54597979033759</v>
+        <v>0.2972901920742075</v>
       </c>
       <c r="H5">
-        <v>0.6899451741312674</v>
+        <v>0.2735640449890084</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1832294315790755</v>
+        <v>0.08444635755482111</v>
       </c>
       <c r="K5">
-        <v>0.3464033750092597</v>
+        <v>1.133729693200536</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1916617003657777</v>
+        <v>0.3202093045404055</v>
       </c>
       <c r="N5">
-        <v>1.570428648277268</v>
+        <v>0.9032216857378934</v>
       </c>
       <c r="O5">
-        <v>2.444093401687923</v>
+        <v>1.151351606939585</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245186220495498</v>
+        <v>0.2061069665138149</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.22900729756212</v>
+        <v>0.1355056656980054</v>
       </c>
       <c r="E6">
-        <v>0.1771223671481685</v>
+        <v>0.08989870970008695</v>
       </c>
       <c r="F6">
-        <v>1.109079090259421</v>
+        <v>0.5385493590872343</v>
       </c>
       <c r="G6">
-        <v>0.546043060297265</v>
+        <v>0.2967058560507141</v>
       </c>
       <c r="H6">
-        <v>0.6901330682751308</v>
+        <v>0.2735197412048009</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1832546782207096</v>
+        <v>0.08431726640542792</v>
       </c>
       <c r="K6">
-        <v>0.3439964279286016</v>
+        <v>1.126089333079534</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1910243804323386</v>
+        <v>0.317950845766191</v>
       </c>
       <c r="N6">
-        <v>1.571048958307493</v>
+        <v>0.904530947995223</v>
       </c>
       <c r="O6">
-        <v>2.444609429800266</v>
+        <v>1.150005160329059</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271889260425922</v>
+        <v>0.215750256747711</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2297286161358301</v>
+        <v>0.1395745055022672</v>
       </c>
       <c r="E7">
-        <v>0.177247871776828</v>
+        <v>0.09169680840537708</v>
       </c>
       <c r="F7">
-        <v>1.108295677712668</v>
+        <v>0.5453433411123854</v>
       </c>
       <c r="G7">
-        <v>0.5456345110206655</v>
+        <v>0.3008177393552316</v>
       </c>
       <c r="H7">
-        <v>0.6888537187740127</v>
+        <v>0.2738641995032438</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.183087160065611</v>
+        <v>0.08522525001603043</v>
       </c>
       <c r="K7">
-        <v>0.3606936032779799</v>
+        <v>1.179103092067294</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1954527057494104</v>
+        <v>0.3336319523265061</v>
       </c>
       <c r="N7">
-        <v>1.566789920701094</v>
+        <v>0.8955295328887587</v>
       </c>
       <c r="O7">
-        <v>2.441143738747414</v>
+        <v>1.159546121306349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391245824801928</v>
+        <v>0.2585670593945224</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2331162002418097</v>
+        <v>0.157797956594635</v>
       </c>
       <c r="E8">
-        <v>0.1779756261065337</v>
+        <v>0.09988931959264491</v>
       </c>
       <c r="F8">
-        <v>1.106089815508859</v>
+        <v>0.5774130406675866</v>
       </c>
       <c r="G8">
-        <v>0.5445892123556746</v>
+        <v>0.3204055669147294</v>
       </c>
       <c r="H8">
-        <v>0.6838223883448791</v>
+        <v>0.2763240654633279</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1825388492224107</v>
+        <v>0.08953798933246304</v>
       </c>
       <c r="K8">
-        <v>0.4341285552933414</v>
+        <v>1.412639602552673</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2151065567486583</v>
+        <v>0.4029783621033047</v>
       </c>
       <c r="N8">
-        <v>1.549147820538138</v>
+        <v>0.8579797754207625</v>
       </c>
       <c r="O8">
-        <v>2.428722438928645</v>
+        <v>1.206655123350643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1630663841022084</v>
+        <v>0.3436720831661262</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2404883108123954</v>
+        <v>0.1946142086941478</v>
       </c>
       <c r="E9">
-        <v>0.1800252272070573</v>
+        <v>0.1169767329514499</v>
       </c>
       <c r="F9">
-        <v>1.106252811542987</v>
+        <v>0.6485709781861644</v>
       </c>
       <c r="G9">
-        <v>0.5452628758298204</v>
+        <v>0.3645980139158524</v>
       </c>
       <c r="H9">
-        <v>0.6761584757688581</v>
+        <v>0.2847875428536923</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1821485042665856</v>
+        <v>0.09919989881944957</v>
       </c>
       <c r="K9">
-        <v>0.5771916145416185</v>
+        <v>1.86981196253106</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2540361333873165</v>
+        <v>0.5397854651111231</v>
       </c>
       <c r="N9">
-        <v>1.518684685716437</v>
+        <v>0.7925134334013606</v>
       </c>
       <c r="O9">
-        <v>2.414678710244971</v>
+        <v>1.318840225680816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1809757690043199</v>
+        <v>0.4070955598575239</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2463445446899613</v>
+        <v>0.2224392942230509</v>
       </c>
       <c r="E10">
-        <v>0.1819086508437735</v>
+        <v>0.1302498140511652</v>
       </c>
       <c r="F10">
-        <v>1.109103843363435</v>
+        <v>0.7066550696796696</v>
       </c>
       <c r="G10">
-        <v>0.5474202467438261</v>
+        <v>0.4011862224823659</v>
       </c>
       <c r="H10">
-        <v>0.671866523113124</v>
+        <v>0.2934867266110359</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1822784055005258</v>
+        <v>0.1071379838254813</v>
       </c>
       <c r="K10">
-        <v>0.6816857370781406</v>
+        <v>2.205919954339663</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2828635959376129</v>
+        <v>0.6410946821365968</v>
       </c>
       <c r="N10">
-        <v>1.498815360300178</v>
+        <v>0.7497519365231042</v>
       </c>
       <c r="O10">
-        <v>2.410645252272758</v>
+        <v>1.41514920632801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1891910804661592</v>
+        <v>0.4361901062025026</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2491033146293802</v>
+        <v>0.2352938315458175</v>
       </c>
       <c r="E11">
-        <v>0.182847077470047</v>
+        <v>0.1364666835638246</v>
       </c>
       <c r="F11">
-        <v>1.110992943521595</v>
+        <v>0.7345185610151219</v>
       </c>
       <c r="G11">
-        <v>0.5487631900564054</v>
+        <v>0.4188657545660277</v>
       </c>
       <c r="H11">
-        <v>0.670203878771531</v>
+        <v>0.2980446203924885</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.182427817991929</v>
+        <v>0.1109561425660743</v>
       </c>
       <c r="K11">
-        <v>0.7290815945719942</v>
+        <v>2.359043304309893</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2960248626984523</v>
+        <v>0.6874269495057135</v>
       </c>
       <c r="N11">
-        <v>1.490320150469579</v>
+        <v>0.7315405671196373</v>
       </c>
       <c r="O11">
-        <v>2.410174415884484</v>
+        <v>1.462404093696449</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1923116509357072</v>
+        <v>0.4472463438448102</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2501615190869586</v>
+        <v>0.2401921859741236</v>
       </c>
       <c r="E12">
-        <v>0.1832141365241249</v>
+        <v>0.1388485319043014</v>
       </c>
       <c r="F12">
-        <v>1.111793332582181</v>
+        <v>0.7452926930473893</v>
       </c>
       <c r="G12">
-        <v>0.5493237380366196</v>
+        <v>0.4257217805999005</v>
       </c>
       <c r="H12">
-        <v>0.66961587980839</v>
+        <v>0.2998624035835888</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1824973666323189</v>
+        <v>0.112433923521003</v>
       </c>
       <c r="K12">
-        <v>0.7470082941291878</v>
+        <v>2.417074265371895</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3010152768013867</v>
+        <v>0.7050133002377237</v>
       </c>
       <c r="N12">
-        <v>1.487181277993244</v>
+        <v>0.7248302826339028</v>
       </c>
       <c r="O12">
-        <v>2.41019216848747</v>
+        <v>1.480831116523518</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1916391560665858</v>
+        <v>0.4448633979160945</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2499330162788453</v>
+        <v>0.2391358373529897</v>
       </c>
       <c r="E13">
-        <v>0.1831345642464655</v>
+        <v>0.1383342962978098</v>
       </c>
       <c r="F13">
-        <v>1.111617174807307</v>
+        <v>0.7429621208235062</v>
       </c>
       <c r="G13">
-        <v>0.5492007008598847</v>
+        <v>0.4242378408069243</v>
       </c>
       <c r="H13">
-        <v>0.6697406663571854</v>
+        <v>0.2994667379469291</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1824818115678895</v>
+        <v>0.1121142013871221</v>
       </c>
       <c r="K13">
-        <v>0.7431484136357085</v>
+        <v>2.404573959100105</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2999402163392233</v>
+        <v>0.7012238281929015</v>
       </c>
       <c r="N13">
-        <v>1.487853818804012</v>
+        <v>0.7262670676714862</v>
       </c>
       <c r="O13">
-        <v>2.410179627369018</v>
+        <v>1.476838217488478</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1894476202363364</v>
+        <v>0.4370989099289915</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2491901034260593</v>
+        <v>0.2356961946256604</v>
       </c>
       <c r="E14">
-        <v>0.1828770414590366</v>
+        <v>0.1366620739409967</v>
       </c>
       <c r="F14">
-        <v>1.111057088633743</v>
+        <v>0.7354003963486804</v>
       </c>
       <c r="G14">
-        <v>0.5488082643471301</v>
+        <v>0.4194265007607072</v>
       </c>
       <c r="H14">
-        <v>0.6701546702078076</v>
+        <v>0.298192298151676</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1824332799812041</v>
+        <v>0.1110770678599877</v>
       </c>
       <c r="K14">
-        <v>0.730556863704777</v>
+        <v>2.363816531302177</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2964352979800609</v>
+        <v>0.6888729255185027</v>
       </c>
       <c r="N14">
-        <v>1.490060349098606</v>
+        <v>0.730984736488999</v>
       </c>
       <c r="O14">
-        <v>2.410171947849818</v>
+        <v>1.463909198539056</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1881064867755811</v>
+        <v>0.4323481024505043</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2487368051878178</v>
+        <v>0.2335933731586834</v>
       </c>
       <c r="E15">
-        <v>0.1827208233478999</v>
+        <v>0.1356414502305334</v>
       </c>
       <c r="F15">
-        <v>1.110725089152737</v>
+        <v>0.7307981221385944</v>
       </c>
       <c r="G15">
-        <v>0.5485746585957685</v>
+        <v>0.416500782874607</v>
       </c>
       <c r="H15">
-        <v>0.6704136763026298</v>
+        <v>0.2974237904156922</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1824052414268138</v>
+        <v>0.1104460174490995</v>
       </c>
       <c r="K15">
-        <v>0.7228413978553192</v>
+        <v>2.338857914252827</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2942892754021003</v>
+        <v>0.6813132057758793</v>
       </c>
       <c r="N15">
-        <v>1.49142207885663</v>
+        <v>0.7338988928602745</v>
       </c>
       <c r="O15">
-        <v>2.410192772356822</v>
+        <v>1.456060315712932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1804402349644363</v>
+        <v>0.4051993738196416</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2461661499953465</v>
+        <v>0.2216033750776489</v>
       </c>
       <c r="E16">
-        <v>0.1818489616954864</v>
+        <v>0.129847289100816</v>
       </c>
       <c r="F16">
-        <v>1.10899229134737</v>
+        <v>0.7048644331473781</v>
       </c>
       <c r="G16">
-        <v>0.5473397587294357</v>
+        <v>0.4000526909225641</v>
       </c>
       <c r="H16">
-        <v>0.6719810067228167</v>
+        <v>0.293201400637102</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1822704569285847</v>
+        <v>0.1068928060063143</v>
       </c>
       <c r="K16">
-        <v>0.6785854153371815</v>
+        <v>2.195918702476575</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2820044062523621</v>
+        <v>0.6380722107364605</v>
       </c>
       <c r="N16">
-        <v>1.49938147191137</v>
+        <v>0.7509676976554758</v>
       </c>
       <c r="O16">
-        <v>2.410703461789922</v>
+        <v>1.41213342907551</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1757545721745828</v>
+        <v>0.3886093850975101</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2446133265518569</v>
+        <v>0.214299907825108</v>
       </c>
       <c r="E17">
-        <v>0.1813349837915936</v>
+        <v>0.1263399134378709</v>
       </c>
       <c r="F17">
-        <v>1.108080853103175</v>
+        <v>0.6893348070915835</v>
       </c>
       <c r="G17">
-        <v>0.5466747987316438</v>
+        <v>0.3902360094497368</v>
       </c>
       <c r="H17">
-        <v>0.6730166898561407</v>
+        <v>0.2907686951760127</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1822108909371849</v>
+        <v>0.1047675540315893</v>
       </c>
       <c r="K17">
-        <v>0.6513994163834127</v>
+        <v>2.108297642465885</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2744799891922156</v>
+        <v>0.6116124054298453</v>
       </c>
       <c r="N17">
-        <v>1.50440344224176</v>
+        <v>0.7617619309806827</v>
       </c>
       <c r="O17">
-        <v>2.411366041014873</v>
+        <v>1.386093591035689</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1730659383383966</v>
+        <v>0.3790898827251681</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2437291072411654</v>
+        <v>0.2101175200239425</v>
       </c>
       <c r="E18">
-        <v>0.1810470449857284</v>
+        <v>0.124339278360619</v>
       </c>
       <c r="F18">
-        <v>1.107612361430071</v>
+        <v>0.6805371947571217</v>
       </c>
       <c r="G18">
-        <v>0.5463263607762627</v>
+        <v>0.3846863890949095</v>
       </c>
       <c r="H18">
-        <v>0.6736396672020248</v>
+        <v>0.2894256525317189</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.182185132592231</v>
+        <v>0.1035645210248148</v>
       </c>
       <c r="K18">
-        <v>0.6357497264991991</v>
+        <v>2.057920714365565</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2701566335054224</v>
+        <v>0.5964162201037908</v>
       </c>
       <c r="N18">
-        <v>1.507343102335462</v>
+        <v>0.7680868289669931</v>
       </c>
       <c r="O18">
-        <v>2.411875531282135</v>
+        <v>1.371437903212154</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1721567245867845</v>
+        <v>0.3758705141948582</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2434312616293965</v>
+        <v>0.2087045223945125</v>
       </c>
       <c r="E19">
-        <v>0.1809508755474525</v>
+        <v>0.1236647114098233</v>
       </c>
       <c r="F19">
-        <v>1.1074633159282</v>
+        <v>0.6775811334793218</v>
       </c>
       <c r="G19">
-        <v>0.5462142297952539</v>
+        <v>0.3828236248881041</v>
       </c>
       <c r="H19">
-        <v>0.6738552838697132</v>
+        <v>0.2889804108128402</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1821778721226579</v>
+        <v>0.1031604556775605</v>
       </c>
       <c r="K19">
-        <v>0.6304488069919501</v>
+        <v>2.040867045781027</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2686935999677189</v>
+        <v>0.5912747939863507</v>
       </c>
       <c r="N19">
-        <v>1.508347208863007</v>
+        <v>0.7702480902888595</v>
       </c>
       <c r="O19">
-        <v>2.412070090258339</v>
+        <v>1.366529893848821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1762527043987774</v>
+        <v>0.3903730494402282</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2447777044552595</v>
+        <v>0.2150754563974573</v>
       </c>
       <c r="E20">
-        <v>0.1813889022854838</v>
+        <v>0.126711536026221</v>
       </c>
       <c r="F20">
-        <v>1.108172108904206</v>
+        <v>0.6909739194805695</v>
       </c>
       <c r="G20">
-        <v>0.5467420628276614</v>
+        <v>0.3912709198355628</v>
       </c>
       <c r="H20">
-        <v>0.672903616714791</v>
+        <v>0.291021807510873</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.182216352001646</v>
+        <v>0.1049917723303082</v>
       </c>
       <c r="K20">
-        <v>0.6542947680327416</v>
+        <v>2.117622846078774</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.275280513735737</v>
+        <v>0.6144266960764</v>
       </c>
       <c r="N20">
-        <v>1.503863551014803</v>
+        <v>0.7606007725585897</v>
       </c>
       <c r="O20">
-        <v>2.41128222088625</v>
+        <v>1.388832013532721</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1900910682321211</v>
+        <v>0.4393784446210276</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.249407948901009</v>
+        <v>0.2367056508299186</v>
       </c>
       <c r="E21">
-        <v>0.1829523650320546</v>
+        <v>0.1371524796708776</v>
       </c>
       <c r="F21">
-        <v>1.111219292872178</v>
+        <v>0.7376152809737135</v>
       </c>
       <c r="G21">
-        <v>0.5489221209630983</v>
+        <v>0.4208352321288658</v>
       </c>
       <c r="H21">
-        <v>0.6700319385002018</v>
+        <v>0.2985640953016997</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1824471830473939</v>
+        <v>0.1113808148592241</v>
       </c>
       <c r="K21">
-        <v>0.7342558880064303</v>
+        <v>2.375786598070164</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.297464602716623</v>
+        <v>0.6924995141740453</v>
       </c>
       <c r="N21">
-        <v>1.489410119145973</v>
+        <v>0.7295939338837982</v>
       </c>
       <c r="O21">
-        <v>2.410168883578905</v>
+        <v>1.46769199947542</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1991911606250198</v>
+        <v>0.4716341797972348</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2525128264748417</v>
+        <v>0.2510218911241822</v>
       </c>
       <c r="E22">
-        <v>0.1840423385522563</v>
+        <v>0.144138413488001</v>
       </c>
       <c r="F22">
-        <v>1.113706353366283</v>
+        <v>0.769404913562127</v>
       </c>
       <c r="G22">
-        <v>0.5506500431687584</v>
+        <v>0.4411029057747839</v>
       </c>
       <c r="H22">
-        <v>0.668397627243948</v>
+        <v>0.3040313175315106</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1826736312431763</v>
+        <v>0.1157436106062022</v>
       </c>
       <c r="K22">
-        <v>0.786391709196721</v>
+        <v>2.544789663306943</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.312001096377486</v>
+        <v>0.7437685470473951</v>
       </c>
       <c r="N22">
-        <v>1.480419041160346</v>
+        <v>0.7104169063076142</v>
       </c>
       <c r="O22">
-        <v>2.410583926937051</v>
+        <v>1.5223551788809</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1943292204121576</v>
+        <v>0.4543965149020579</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2508485245306957</v>
+        <v>0.2433638006055361</v>
       </c>
       <c r="E23">
-        <v>0.1834543769456154</v>
+        <v>0.1403943815425777</v>
       </c>
       <c r="F23">
-        <v>1.112333660369003</v>
+        <v>0.7523131888655996</v>
       </c>
       <c r="G23">
-        <v>0.5497000776651504</v>
+        <v>0.4301948757066327</v>
       </c>
       <c r="H23">
-        <v>0.6692477221106259</v>
+        <v>0.3010622514812553</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1825458615275792</v>
+        <v>0.1133972327063191</v>
       </c>
       <c r="K23">
-        <v>0.7585774903481877</v>
+        <v>2.454559204842383</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3042393279002553</v>
+        <v>0.7163809133609362</v>
       </c>
       <c r="N23">
-        <v>1.485176130978608</v>
+        <v>0.7205499309319805</v>
       </c>
       <c r="O23">
-        <v>2.41025788727481</v>
+        <v>1.492881607008428</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1760274825579558</v>
+        <v>0.3895756400684434</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2447033626601609</v>
+        <v>0.2147247797529133</v>
       </c>
       <c r="E24">
-        <v>0.181364502201852</v>
+        <v>0.1265434763793891</v>
       </c>
       <c r="F24">
-        <v>1.108130679249882</v>
+        <v>0.6902324712253645</v>
       </c>
       <c r="G24">
-        <v>0.5467115472710447</v>
+        <v>0.3908027446057076</v>
       </c>
       <c r="H24">
-        <v>0.6729546512623727</v>
+        <v>0.2909072027995592</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1822138566173024</v>
+        <v>0.1048903448323415</v>
       </c>
       <c r="K24">
-        <v>0.6529858420691426</v>
+        <v>2.113406930084636</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2749185886802152</v>
+        <v>0.6131543061644038</v>
       </c>
       <c r="N24">
-        <v>1.504107472416969</v>
+        <v>0.7611253617202394</v>
       </c>
       <c r="O24">
-        <v>2.411319715489554</v>
+        <v>1.387592994491342</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.156532873830173</v>
+        <v>0.3205065501902595</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2384163740229894</v>
+        <v>0.184527028024533</v>
       </c>
       <c r="E25">
-        <v>0.1794043110160679</v>
+        <v>0.1122351311742698</v>
       </c>
       <c r="F25">
-        <v>1.10572870152113</v>
+        <v>0.6283593416244813</v>
       </c>
       <c r="G25">
-        <v>0.5447888418653832</v>
+        <v>0.3519644058193165</v>
       </c>
       <c r="H25">
-        <v>0.6779963861819311</v>
+        <v>0.2820821236185651</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1821808671797811</v>
+        <v>0.09644662476199528</v>
       </c>
       <c r="K25">
-        <v>0.5385942842512463</v>
+        <v>1.74614952342921</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2434641924751659</v>
+        <v>0.5026582131546675</v>
       </c>
       <c r="N25">
-        <v>1.526484107527402</v>
+        <v>0.8093136224184647</v>
       </c>
       <c r="O25">
-        <v>2.417374037348168</v>
+        <v>1.286189930827362</v>
       </c>
     </row>
   </sheetData>
